--- a/doc/Anwendungsfälle.xlsx
+++ b/doc/Anwendungsfälle.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Anwendungsfall</t>
   </si>
@@ -29,7 +29,7 @@
     <t>Als Nutzer eine Android Handys möchte ich in meiner App neue Bestellungen für Autos anlegen</t>
   </si>
   <si>
-    <t>Suchen</t>
+    <t>Autosuche</t>
   </si>
   <si>
     <t>Als Nutzer eine Android Handys möchte ich in meiner App nach meinen Bestellungen für Autos suchen</t>
@@ -44,7 +44,25 @@
     <t>Eingeben</t>
   </si>
   <si>
-    <t>Als Nutzer eine Android Handys möchte ich in meiner App minen Vornamen, Nachnamen und die Menge derzu bestellenden Autos eingeben </t>
+    <t>Als Nutzer eine Android Handys möchte ich in meiner App minen Vornamen, Nachnamen und die Menge derzu bestellenden Autos eingeben</t>
+  </si>
+  <si>
+    <t>Typfestlegung</t>
+  </si>
+  <si>
+    <t>Als Nutzer eine Android Handys möchte ich in meiner App  den Fahrzeugtyp meiner Bestellung auswählen</t>
+  </si>
+  <si>
+    <t>Modellsuche</t>
+  </si>
+  <si>
+    <t>Als Nutzer eine Android Handys möchte ich in meiner App nach den Modellen für meine bestellten Autos suchen</t>
+  </si>
+  <si>
+    <t>Kundensuche</t>
+  </si>
+  <si>
+    <t>Als Nutzer eine Android Handys möchte ich in meiner App  die Kunden für die Bestellungen anzeigen lassen</t>
   </si>
 </sst>
 </file>
@@ -57,6 +75,7 @@
   <fonts count="4">
     <font>
       <name val="Arial"/>
+      <charset val="1"/>
       <family val="2"/>
       <sz val="10"/>
     </font>
@@ -140,10 +159,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="B9" activeCellId="0" pane="topLeft" sqref="B9"/>
+      <selection activeCell="B8" activeCellId="0" pane="topLeft" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.85"/>
@@ -194,6 +213,30 @@
         <v>9</v>
       </c>
     </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="6">
+      <c r="A6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="7">
+      <c r="A7" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="8">
+      <c r="A8" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
